--- a/Documentation/Kalkulation.xlsx
+++ b/Documentation/Kalkulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="37540" windowHeight="23560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Platinen" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>1.8K</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Pauschal Aufschlag</t>
   </si>
 </sst>
 </file>
@@ -808,7 +811,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="372">
+  <cellStyleXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1181,8 +1184,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="8" applyBorder="1"/>
@@ -1298,6 +1333,59 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1316,33 +1404,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1352,22 +1413,40 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1409,44 +1488,8 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="372">
+  <cellStyles count="404">
     <cellStyle name="20 % - Akzent1" xfId="3" builtinId="30"/>
     <cellStyle name="20 % - Akzent3" xfId="7" builtinId="38"/>
     <cellStyle name="60 % - Akzent1" xfId="4" builtinId="32"/>
@@ -1651,6 +1694,22 @@
     <cellStyle name="Besuchter Link" xfId="367" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
@@ -1817,6 +1876,22 @@
     <cellStyle name="Link" xfId="366" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -2147,10 +2222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2175,58 +2250,58 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="22"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="96">
         <v>200</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="77">
+      <c r="H4" s="97"/>
+      <c r="I4" s="96">
         <v>500</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="77">
+      <c r="J4" s="97"/>
+      <c r="K4" s="96">
         <v>1000</v>
       </c>
-      <c r="L4" s="78"/>
+      <c r="L4" s="97"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="23"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="24" t="s">
         <v>52</v>
       </c>
@@ -2247,7 +2322,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="90" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="2">
@@ -2288,7 +2363,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="95"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="1">
         <v>1759016</v>
       </c>
@@ -2327,7 +2402,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="95"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="2">
         <v>1190132</v>
       </c>
@@ -2366,7 +2441,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="95"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="1">
         <v>2059627</v>
       </c>
@@ -2405,7 +2480,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="95"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="2">
         <v>1759022</v>
       </c>
@@ -2444,7 +2519,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="95"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="1">
         <v>1432447</v>
       </c>
@@ -2483,7 +2558,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="95"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="2">
         <v>1759399</v>
       </c>
@@ -2522,7 +2597,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="95"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="1">
         <v>2320811</v>
       </c>
@@ -2561,7 +2636,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="95"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="2">
         <v>2059568</v>
       </c>
@@ -2600,7 +2675,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="95"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="1">
         <v>2059570</v>
       </c>
@@ -2639,14 +2714,14 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="19">
         <f>H16/G4</f>
         <v>0.499</v>
@@ -2673,7 +2748,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="91" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="3">
@@ -2714,7 +2789,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="96"/>
+      <c r="A18" s="91"/>
       <c r="B18" s="4">
         <v>2099223</v>
       </c>
@@ -2753,7 +2828,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="96"/>
+      <c r="A19" s="91"/>
       <c r="B19" s="3">
         <v>1202826</v>
       </c>
@@ -2792,7 +2867,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="96"/>
+      <c r="A20" s="91"/>
       <c r="B20" s="4">
         <v>2099221</v>
       </c>
@@ -2831,7 +2906,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="96"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="3">
         <v>1679118</v>
       </c>
@@ -2870,7 +2945,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="96"/>
+      <c r="A22" s="91"/>
       <c r="B22" s="4">
         <v>1679121</v>
       </c>
@@ -2909,7 +2984,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="96"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="3">
         <v>1103107</v>
       </c>
@@ -2948,7 +3023,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="96"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="4">
         <v>2432094</v>
       </c>
@@ -2987,14 +3062,14 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
       <c r="G25" s="20">
         <f>H25/G4</f>
         <v>7.1735000000000007</v>
@@ -3021,14 +3096,14 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="86" t="s">
+      <c r="A26" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="70">
         <f t="shared" ref="G26" si="6">H26/G$4</f>
         <v>7.6725000000000003</v>
@@ -3055,14 +3130,14 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
       <c r="G27" s="72">
         <f t="shared" ref="G27" si="12">H27/G$4</f>
         <v>6.9121621621621614</v>
@@ -3089,7 +3164,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="79" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="3"/>
@@ -3124,7 +3199,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="81"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>69</v>
@@ -3160,7 +3235,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="81"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>70</v>
@@ -3171,68 +3246,123 @@
         <v>1</v>
       </c>
       <c r="G30" s="10">
-        <f>'Kabel V2'!E17</f>
-        <v>1.1500000000000001</v>
+        <f>'Kabel V2'!E18</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="H30" s="9">
-        <f>'Kabel V2'!F17</f>
-        <v>230.00000000000003</v>
+        <f>'Kabel V2'!F18</f>
+        <v>330</v>
       </c>
       <c r="I30" s="10">
-        <f>'Kabel V2'!G17</f>
+        <f>'Kabel V2'!G18</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="J30" s="9">
-        <f>'Kabel V2'!H17</f>
+        <f>'Kabel V2'!H18</f>
         <v>550</v>
       </c>
       <c r="K30" s="10">
-        <f>'Kabel V2'!I17</f>
+        <f>'Kabel V2'!I18</f>
         <v>1.07</v>
       </c>
       <c r="L30" s="9">
-        <f>'Kabel V2'!J17</f>
+        <f>'Kabel V2'!J18</f>
         <v>1070</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="75"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+      <c r="G31" s="76">
+        <f>4/(5000/30)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="H31" s="77">
+        <f>$F31*G$4*G31</f>
+        <v>4.8</v>
+      </c>
+      <c r="I31" s="76">
+        <f t="shared" ref="I31" si="17">4/(5000/30)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="J31" s="77">
+        <f>$F31*I$4*I31</f>
+        <v>12</v>
+      </c>
+      <c r="K31" s="76">
+        <f t="shared" ref="K31" si="18">4/(5000/30)</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="L31" s="77">
+        <f>$F31*K$4*K31</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="75"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="18">
+      <c r="A33" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="21">
-        <f>H31/G4</f>
-        <v>10.080012162162161</v>
-      </c>
-      <c r="H31" s="18">
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="21">
+        <f>H33/G4</f>
+        <v>10.580012162162161</v>
+      </c>
+      <c r="H33" s="18">
         <f>SUM(H28:H30)</f>
-        <v>2016.0024324324322</v>
-      </c>
-      <c r="I31" s="21">
-        <f>J31/I4</f>
+        <v>2116.0024324324322</v>
+      </c>
+      <c r="I33" s="21">
+        <f>J33/I4</f>
         <v>7.749549549549549</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J33" s="18">
         <f>SUM(J28:J30)</f>
         <v>3874.7747747747744</v>
       </c>
-      <c r="K31" s="21">
-        <f>L31/K4</f>
+      <c r="K33" s="21">
+        <f>L33/K4</f>
         <v>7.7195495495495488</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L33" s="18">
         <f>SUM(L28:L30)</f>
         <v>7719.5495495495488</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
@@ -3244,11 +3374,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3262,10 +3387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3279,50 +3404,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="32"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="112">
         <v>200</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123">
+      <c r="F3" s="113"/>
+      <c r="G3" s="114">
         <v>500</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="I3" s="123">
+      <c r="H3" s="113"/>
+      <c r="I3" s="114">
         <v>1000</v>
       </c>
-      <c r="J3" s="122"/>
+      <c r="J3" s="113"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="111"/>
       <c r="E4" s="34" t="s">
         <v>52</v>
       </c>
@@ -3364,355 +3489,397 @@
         <v>1.02</v>
       </c>
       <c r="H5" s="39">
-        <f t="shared" ref="H5" si="0">G5*$D5</f>
+        <f t="shared" ref="H5:H6" si="0">G5*$D5</f>
         <v>1.02</v>
       </c>
       <c r="I5" s="38">
         <v>0.99</v>
       </c>
       <c r="J5" s="39">
-        <f t="shared" ref="J5" si="1">I5*$D5</f>
+        <f t="shared" ref="J5:J6" si="1">I5*$D5</f>
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="46" customFormat="1">
-      <c r="A6" s="104" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1">
+      <c r="A6" s="78"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="41">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" ref="F6" si="2">E6*$D6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="43">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="43">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="46" customFormat="1">
+      <c r="A7" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="44">
-        <f>SUM(F5:F5)</f>
-        <v>1.05</v>
-      </c>
-      <c r="F6" s="45">
-        <f>E6*E$3</f>
-        <v>210</v>
-      </c>
-      <c r="G6" s="44">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="44">
+        <f>SUM(F5:F6)</f>
+        <v>1.55</v>
+      </c>
+      <c r="F7" s="45">
+        <f>E7*E$3</f>
+        <v>310</v>
+      </c>
+      <c r="G7" s="44">
         <f>SUM(H5:H5)</f>
         <v>1.02</v>
       </c>
-      <c r="H6" s="45">
-        <f t="shared" ref="H6" si="2">G6*G$3</f>
+      <c r="H7" s="45">
+        <f t="shared" ref="H7" si="3">G7*G$3</f>
         <v>510</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I7" s="44">
         <f>SUM(J5:J5)</f>
         <v>0.99</v>
       </c>
-      <c r="J6" s="45">
-        <f t="shared" ref="J6" si="3">I6*I$3</f>
+      <c r="J7" s="45">
+        <f t="shared" ref="J7" si="4">I7*I$3</f>
         <v>990</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="106"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="122"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D8" s="48">
         <v>1</v>
       </c>
-      <c r="E7" s="49">
-        <v>2.9411764705999999</v>
-      </c>
-      <c r="F7" s="50">
-        <f>E7*$D7</f>
-        <v>2.9411764705999999</v>
-      </c>
-      <c r="G7" s="49">
+      <c r="E8" s="49">
+        <v>3.31</v>
+      </c>
+      <c r="F8" s="50">
+        <f>E8*$D8</f>
+        <v>3.31</v>
+      </c>
+      <c r="G8" s="49">
         <v>2.94</v>
       </c>
-      <c r="H7" s="50">
-        <f t="shared" ref="H7:H8" si="4">G7*$D7</f>
+      <c r="H8" s="50">
+        <f t="shared" ref="H8:H9" si="5">G8*$D8</f>
         <v>2.94</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I8" s="49">
         <v>2.94</v>
       </c>
-      <c r="J7" s="50">
-        <f t="shared" ref="J7:J8" si="5">I7*$D7</f>
+      <c r="J8" s="50">
+        <f t="shared" ref="J8:J9" si="6">I8*$D8</f>
         <v>2.94</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="106"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="122"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D9" s="52">
         <v>1</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54">
-        <f>E8*$D8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54">
+      <c r="E9" s="53">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="54">
+        <f>E9*$D9</f>
+        <v>0.02</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="46" customFormat="1">
-      <c r="A9" s="107" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="46" customFormat="1">
+      <c r="A10" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="55">
-        <f>SUM(F7:F8)+E6</f>
-        <v>3.9911764706000001</v>
-      </c>
-      <c r="F9" s="56">
-        <f>E9*E$3</f>
-        <v>798.23529412000005</v>
-      </c>
-      <c r="G9" s="55">
-        <f>SUM(H7:H8)+G6</f>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="55">
+        <f>SUM(F8:F9)+E7</f>
+        <v>4.88</v>
+      </c>
+      <c r="F10" s="56">
+        <f>E10*E$3</f>
+        <v>976</v>
+      </c>
+      <c r="G10" s="55">
+        <f>SUM(H8:H9)+G7</f>
         <v>3.96</v>
       </c>
-      <c r="H9" s="56">
-        <f t="shared" ref="H9" si="6">G9*G$3</f>
+      <c r="H10" s="56">
+        <f t="shared" ref="H10" si="7">G10*G$3</f>
         <v>1980</v>
       </c>
-      <c r="I9" s="55">
-        <f>SUM(J7:J8)+I6</f>
+      <c r="I10" s="55">
+        <f>SUM(J8:J9)+I7</f>
         <v>3.9299999999999997</v>
       </c>
-      <c r="J9" s="56">
-        <f t="shared" ref="J9" si="7">I9*I$3</f>
+      <c r="J10" s="56">
+        <f t="shared" ref="J10" si="8">I10*I$3</f>
         <v>3929.9999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="46" customFormat="1">
-      <c r="A10" s="109" t="s">
+    <row r="11" spans="1:10" s="46" customFormat="1">
+      <c r="A11" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="55">
-        <f>E9*3*1.25*1.19</f>
-        <v>17.8106250000525</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="55">
-        <f t="shared" ref="G10" si="8">G9*3*1.25*1.19</f>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="55">
+        <f>E10*3*1.25*1.19</f>
+        <v>21.777000000000001</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="55">
+        <f t="shared" ref="G11" si="9">G10*3*1.25*1.19</f>
         <v>17.671499999999998</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="55">
-        <f t="shared" ref="I10" si="9">I9*3*1.25*1.19</f>
+      <c r="H11" s="56"/>
+      <c r="I11" s="55">
+        <f t="shared" ref="I11" si="10">I10*3*1.25*1.19</f>
         <v>17.537624999999998</v>
       </c>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="111"/>
-      <c r="B11" s="62">
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="127"/>
+      <c r="B12" s="62">
         <v>865631</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C12" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D12" s="64">
         <v>1</v>
       </c>
-      <c r="E11" s="65">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="F11" s="66">
-        <f>E11*$D11</f>
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="G11" s="65">
+      <c r="E12" s="65">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F12" s="66">
+        <f>E12*$D12</f>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G12" s="65">
+        <v>9.98E-2</v>
+      </c>
+      <c r="H12" s="66">
+        <f t="shared" ref="H12:H13" si="11">G12*$D12</f>
+        <v>9.98E-2</v>
+      </c>
+      <c r="I12" s="65">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H11" s="66">
-        <f t="shared" ref="H11:H12" si="10">G11*$D11</f>
+      <c r="J12" s="66">
+        <f t="shared" ref="J12:J17" si="12">I12*$D12</f>
         <v>0.22800000000000001</v>
       </c>
-      <c r="I11" s="65">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="J11" s="66">
-        <f t="shared" ref="J11:J16" si="11">I11*$D11</f>
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="111"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61">
-        <f t="shared" ref="F12" si="12">E12*$D12</f>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="127"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61">
+        <f t="shared" ref="F13" si="13">E13*$D13</f>
         <v>0</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61">
+      <c r="G13" s="60"/>
+      <c r="H13" s="61">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="46" customFormat="1">
-      <c r="A13" s="99" t="s">
+      <c r="I13" s="60"/>
+      <c r="J13" s="61">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="46" customFormat="1">
+      <c r="A14" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="67">
-        <f>SUM(F11:F12)+E6</f>
-        <v>1.337</v>
-      </c>
-      <c r="F13" s="68">
-        <f>E13*E$3</f>
-        <v>267.39999999999998</v>
-      </c>
-      <c r="G13" s="67">
-        <f>SUM(H11:H12)+G6</f>
-        <v>1.248</v>
-      </c>
-      <c r="H13" s="68">
-        <f t="shared" ref="H13" si="13">G13*G$3</f>
-        <v>624</v>
-      </c>
-      <c r="I13" s="67">
-        <f>SUM(J11:J12)+I6</f>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="67">
+        <f>SUM(F12:F13)+E7</f>
+        <v>1.6880000000000002</v>
+      </c>
+      <c r="F14" s="68">
+        <f>E14*E$3</f>
+        <v>337.6</v>
+      </c>
+      <c r="G14" s="67">
+        <f>SUM(H12:H13)+G7</f>
+        <v>1.1198000000000001</v>
+      </c>
+      <c r="H14" s="68">
+        <f t="shared" ref="H14" si="14">G14*G$3</f>
+        <v>559.90000000000009</v>
+      </c>
+      <c r="I14" s="67">
+        <f>SUM(J12:J13)+I7</f>
         <v>1.218</v>
       </c>
-      <c r="J13" s="68">
-        <f t="shared" ref="J13" si="14">I13*I$3</f>
+      <c r="J14" s="68">
+        <f t="shared" ref="J14" si="15">I14*I$3</f>
         <v>1218</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="46" customFormat="1">
-      <c r="A14" s="101" t="s">
+    <row r="15" spans="1:10" s="46" customFormat="1">
+      <c r="A15" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="67">
-        <f>E13*3*1.25*1.19</f>
-        <v>5.9663624999999998</v>
-      </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67">
-        <f t="shared" ref="G14" si="15">G13*3*1.25*1.19</f>
-        <v>5.5691999999999995</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="67">
-        <f t="shared" ref="I14" si="16">I13*3*1.25*1.19</f>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="67">
+        <f>E14*3*1.25*1.19</f>
+        <v>7.5327000000000002</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="67">
+        <f t="shared" ref="G15" si="16">G14*3*1.25*1.19</f>
+        <v>4.9971075000000003</v>
+      </c>
+      <c r="H15" s="68"/>
+      <c r="I15" s="67">
+        <f t="shared" ref="I15" si="17">I14*3*1.25*1.19</f>
         <v>5.4353249999999997</v>
       </c>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="103"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36" t="s">
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="119"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D16" s="37">
         <v>1</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E16" s="38">
         <v>0.1</v>
       </c>
-      <c r="F15" s="39">
-        <f>E15*$D15</f>
+      <c r="F16" s="39">
+        <f>E16*$D16</f>
         <v>0.1</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G16" s="38">
         <v>0.08</v>
       </c>
-      <c r="H15" s="39">
-        <f t="shared" ref="H15:H16" si="17">G15*$D15</f>
+      <c r="H16" s="39">
+        <f t="shared" ref="H16:H17" si="18">G16*$D16</f>
         <v>0.08</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I16" s="38">
         <v>0.08</v>
       </c>
-      <c r="J15" s="39">
-        <f t="shared" si="11"/>
+      <c r="J16" s="39">
+        <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="103"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43">
-        <f t="shared" ref="F16" si="18">E16*$D16</f>
+    <row r="17" spans="1:10">
+      <c r="A17" s="119"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43">
+        <f t="shared" ref="F17" si="19">E17*$D17</f>
         <v>0</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43">
-        <f t="shared" si="17"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43">
-        <f t="shared" si="11"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="46" customFormat="1">
-      <c r="A17" s="104" t="s">
+    <row r="18" spans="1:10" s="46" customFormat="1">
+      <c r="A18" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="44">
-        <f>SUM(F15:F16)+E6</f>
-        <v>1.1500000000000001</v>
-      </c>
-      <c r="F17" s="45">
-        <f>E17*E$3</f>
-        <v>230.00000000000003</v>
-      </c>
-      <c r="G17" s="44">
-        <f>SUM(H15:H16)+G6</f>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="44">
+        <f>SUM(F16:F17)+E7</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="F18" s="45">
+        <f>E18*E$3</f>
+        <v>330</v>
+      </c>
+      <c r="G18" s="44">
+        <f>SUM(H16:H17)+G7</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="45">
-        <f t="shared" ref="H17" si="19">G17*G$3</f>
+      <c r="H18" s="45">
+        <f t="shared" ref="H18" si="20">G18*G$3</f>
         <v>550</v>
       </c>
-      <c r="I17" s="44">
-        <f>SUM(J15:J16)+I6</f>
+      <c r="I18" s="44">
+        <f>SUM(J16:J17)+I7</f>
         <v>1.07</v>
       </c>
-      <c r="J17" s="45">
-        <f t="shared" ref="J17" si="20">I17*I$3</f>
+      <c r="J18" s="45">
+        <f t="shared" ref="J18" si="21">I18*I$3</f>
         <v>1070</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="B3:B4"/>
@@ -3721,15 +3888,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Documentation/Kalkulation.xlsx
+++ b/Documentation/Kalkulation.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Platinen" sheetId="1" r:id="rId1"/>
     <sheet name="Kabel V2" sheetId="3" r:id="rId2"/>
+    <sheet name="Blatt1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -811,7 +812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="404">
+  <cellStyleXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1133,6 +1134,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1341,6 +1344,27 @@
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1392,26 +1416,44 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1449,47 +1491,8 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="404">
+  <cellStyles count="406">
     <cellStyle name="20 % - Akzent1" xfId="3" builtinId="30"/>
     <cellStyle name="20 % - Akzent3" xfId="7" builtinId="38"/>
     <cellStyle name="60 % - Akzent1" xfId="4" builtinId="32"/>
@@ -1710,6 +1713,7 @@
     <cellStyle name="Besuchter Link" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="405" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
@@ -1892,6 +1896,7 @@
     <cellStyle name="Link" xfId="398" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="400" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="404" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -2224,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2250,58 +2255,58 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="22"/>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="96">
+      <c r="G4" s="79">
         <v>200</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="96">
+      <c r="H4" s="80"/>
+      <c r="I4" s="79">
         <v>500</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="96">
+      <c r="J4" s="80"/>
+      <c r="K4" s="79">
         <v>1000</v>
       </c>
-      <c r="L4" s="97"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="23"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="83"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="24" t="s">
         <v>52</v>
       </c>
@@ -2322,7 +2327,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="97" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="2">
@@ -2363,7 +2368,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="90"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="1">
         <v>1759016</v>
       </c>
@@ -2402,7 +2407,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="90"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="2">
         <v>1190132</v>
       </c>
@@ -2441,7 +2446,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="90"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="1">
         <v>2059627</v>
       </c>
@@ -2480,7 +2485,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="90"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="2">
         <v>1759022</v>
       </c>
@@ -2519,7 +2524,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="90"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="1">
         <v>1432447</v>
       </c>
@@ -2558,7 +2563,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="90"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="2">
         <v>1759399</v>
       </c>
@@ -2597,7 +2602,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="90"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="1">
         <v>2320811</v>
       </c>
@@ -2636,7 +2641,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="90"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="2">
         <v>2059568</v>
       </c>
@@ -2675,7 +2680,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="90"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="1">
         <v>2059570</v>
       </c>
@@ -2714,14 +2719,14 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="95"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="19">
         <f>H16/G4</f>
         <v>0.499</v>
@@ -2748,7 +2753,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="98" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="3">
@@ -2789,7 +2794,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="91"/>
+      <c r="A18" s="98"/>
       <c r="B18" s="4">
         <v>2099223</v>
       </c>
@@ -2828,7 +2833,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="91"/>
+      <c r="A19" s="98"/>
       <c r="B19" s="3">
         <v>1202826</v>
       </c>
@@ -2867,7 +2872,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="91"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="4">
         <v>2099221</v>
       </c>
@@ -2906,7 +2911,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="91"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="3">
         <v>1679118</v>
       </c>
@@ -2945,7 +2950,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="91"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="4">
         <v>1679121</v>
       </c>
@@ -2984,7 +2989,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="91"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="3">
         <v>1103107</v>
       </c>
@@ -3023,7 +3028,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="91"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="4">
         <v>2432094</v>
       </c>
@@ -3062,14 +3067,14 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="20">
         <f>H25/G4</f>
         <v>7.1735000000000007</v>
@@ -3096,14 +3101,14 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="70">
         <f t="shared" ref="G26" si="6">H26/G$4</f>
         <v>7.6725000000000003</v>
@@ -3130,14 +3135,14 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="72">
         <f t="shared" ref="G27" si="12">H27/G$4</f>
         <v>6.9121621621621614</v>
@@ -3164,7 +3169,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="86" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="3"/>
@@ -3199,7 +3204,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="79"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>69</v>
@@ -3235,7 +3240,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="79"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>70</v>
@@ -3321,14 +3326,14 @@
       <c r="L32" s="9"/>
     </row>
     <row r="33" spans="1:12" ht="18">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
       <c r="G33" s="21">
         <f>H33/G4</f>
         <v>10.580012162162161</v>
@@ -3356,11 +3361,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="F4:F5"/>
@@ -3374,6 +3374,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3389,8 +3394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3404,50 +3409,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="32"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="112">
+      <c r="E3" s="125">
         <v>200</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114">
+      <c r="F3" s="126"/>
+      <c r="G3" s="127">
         <v>500</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114">
+      <c r="H3" s="126"/>
+      <c r="I3" s="127">
         <v>1000</v>
       </c>
-      <c r="J3" s="113"/>
+      <c r="J3" s="126"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="111"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="34" t="s">
         <v>52</v>
       </c>
@@ -3532,12 +3537,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="44">
         <f>SUM(F5:F6)</f>
         <v>1.55</v>
@@ -3564,7 +3569,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="122"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
         <v>63</v>
@@ -3595,7 +3600,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="122"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>68</v>
@@ -3622,12 +3627,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
       <c r="E10" s="55">
         <f>SUM(F8:F9)+E7</f>
         <v>4.88</v>
@@ -3654,12 +3659,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="55">
         <f>E10*3*1.25*1.19</f>
         <v>21.777000000000001</v>
@@ -3677,9 +3682,9 @@
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="127"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="62">
-        <v>865631</v>
+        <v>1593509</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>65</v>
@@ -3710,7 +3715,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="127"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
@@ -3731,12 +3736,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="67">
         <f>SUM(F12:F13)+E7</f>
         <v>1.6880000000000002</v>
@@ -3763,12 +3768,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
       <c r="E15" s="67">
         <f>E14*3*1.25*1.19</f>
         <v>7.5327000000000002</v>
@@ -3786,7 +3791,7 @@
       <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="119"/>
+      <c r="A16" s="107"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
         <v>66</v>
@@ -3817,7 +3822,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="119"/>
+      <c r="A17" s="107"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
@@ -3838,12 +3843,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="46" customFormat="1">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="44">
         <f>SUM(F16:F17)+E7</f>
         <v>1.6500000000000001</v>
@@ -3871,6 +3876,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:A17"/>
@@ -3880,15 +3893,25 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Documentation/Kalkulation.xlsx
+++ b/Documentation/Kalkulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Platinen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
   <si>
     <t>1.8K</t>
   </si>
@@ -248,10 +248,28 @@
     <t>Summe Empfänger Kabel</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Pauschal Aufschlag</t>
+  </si>
+  <si>
+    <t>KINGBRIGHT  KPT-1608SGC  LED, GRÜN, 12MCD, 568NM, 0603</t>
+  </si>
+  <si>
+    <t>Bauform</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>SOIC 8</t>
+  </si>
+  <si>
+    <t>LQFP 48</t>
+  </si>
+  <si>
+    <t>SOT-223</t>
+  </si>
+  <si>
+    <t>Farnell</t>
   </si>
 </sst>
 </file>
@@ -812,7 +830,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="406">
+  <cellStyleXfs count="526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1219,8 +1237,128 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="8" applyBorder="1"/>
@@ -1491,8 +1629,14 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="406">
+  <cellStyles count="526">
     <cellStyle name="20 % - Akzent1" xfId="3" builtinId="30"/>
     <cellStyle name="20 % - Akzent3" xfId="7" builtinId="38"/>
     <cellStyle name="60 % - Akzent1" xfId="4" builtinId="32"/>
@@ -1714,6 +1858,66 @@
     <cellStyle name="Besuchter Link" xfId="401" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="403" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="525" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
@@ -1897,6 +2101,66 @@
     <cellStyle name="Link" xfId="400" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="402" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="512" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="514" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="516" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="518" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="520" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="522" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="524" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -2230,19 +2494,20 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B17" sqref="B17:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2251,7 +2516,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="31">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
@@ -2360,11 +2625,11 @@
         <v>5</v>
       </c>
       <c r="K6" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ref="L6:L15" si="2">$F6*K$4*K6</f>
-        <v>10</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2399,11 +2664,11 @@
         <v>7.5</v>
       </c>
       <c r="K7" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2438,11 +2703,11 @@
         <v>91.5</v>
       </c>
       <c r="K8" s="7">
-        <v>0.183</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2477,11 +2742,11 @@
         <v>3</v>
       </c>
       <c r="K9" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2516,11 +2781,11 @@
         <v>4</v>
       </c>
       <c r="K10" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L10" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2555,11 +2820,11 @@
         <v>106.5</v>
       </c>
       <c r="K11" s="8">
-        <v>0.21299999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="2"/>
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2594,11 +2859,11 @@
         <v>4</v>
       </c>
       <c r="K12" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2633,11 +2898,11 @@
         <v>19</v>
       </c>
       <c r="K13" s="8">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2672,11 +2937,11 @@
         <v>3</v>
       </c>
       <c r="K14" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2711,11 +2976,11 @@
         <v>3</v>
       </c>
       <c r="K15" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2745,11 +3010,11 @@
       </c>
       <c r="K16" s="19">
         <f>L16/K4</f>
-        <v>0.49299999999999999</v>
+        <v>0.58279999999999998</v>
       </c>
       <c r="L16" s="15">
         <f>SUM(L6:L15)</f>
-        <v>493</v>
+        <v>582.79999999999995</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2786,11 +3051,11 @@
         <v>1040</v>
       </c>
       <c r="K17" s="11">
-        <v>1.04</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" ref="L17:L24" si="5">$F17*K$4*K17</f>
-        <v>2080</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2799,7 +3064,7 @@
         <v>2099223</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
@@ -2825,11 +3090,11 @@
         <v>20.2</v>
       </c>
       <c r="K18" s="14">
-        <v>4.0399999999999998E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="L18" s="12">
         <f t="shared" si="5"/>
-        <v>40.4</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2864,11 +3129,11 @@
         <v>63</v>
       </c>
       <c r="K19" s="11">
-        <v>0.126</v>
+        <v>0.111</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="5"/>
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2903,11 +3168,11 @@
         <v>24.299999999999997</v>
       </c>
       <c r="K20" s="14">
-        <v>4.8599999999999997E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="L20" s="12">
         <f t="shared" si="5"/>
-        <v>48.599999999999994</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2981,11 +3246,11 @@
         <v>216.5</v>
       </c>
       <c r="K22" s="14">
-        <v>0.433</v>
+        <v>0.126</v>
       </c>
       <c r="L22" s="12">
         <f t="shared" si="5"/>
-        <v>433</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3020,11 +3285,11 @@
         <v>610</v>
       </c>
       <c r="K23" s="11">
-        <v>1.22</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="L23" s="9">
         <f t="shared" si="5"/>
-        <v>1220</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3059,11 +3324,11 @@
         <v>1215</v>
       </c>
       <c r="K24" s="14">
-        <v>2.4300000000000002</v>
+        <v>1.64</v>
       </c>
       <c r="L24" s="12">
         <f t="shared" si="5"/>
-        <v>2430</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3093,11 +3358,11 @@
       </c>
       <c r="K25" s="20">
         <f>L25/K4</f>
-        <v>6.8879999999999999</v>
+        <v>4.7507999999999999</v>
       </c>
       <c r="L25" s="16">
         <f>SUM(L17:L24)</f>
-        <v>6888</v>
+        <v>4750.8</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3127,11 +3392,11 @@
       </c>
       <c r="K26" s="70">
         <f t="shared" ref="K26:K27" si="10">L26/K$4</f>
-        <v>7.3810000000000002</v>
+        <v>5.3336000000000006</v>
       </c>
       <c r="L26" s="71">
         <f t="shared" ref="L26" si="11">L25+L16</f>
-        <v>7381</v>
+        <v>5333.6</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3156,16 +3421,16 @@
         <v>6.6495495495495485</v>
       </c>
       <c r="J27" s="73">
-        <f t="shared" ref="J27:L27" si="15">J26/1.11</f>
+        <f t="shared" ref="J27" si="15">J26/1.11</f>
         <v>3324.7747747747744</v>
       </c>
       <c r="K27" s="72">
         <f t="shared" si="10"/>
-        <v>6.6495495495495485</v>
+        <v>0</v>
       </c>
       <c r="L27" s="73">
-        <f t="shared" si="15"/>
-        <v>6649.5495495495488</v>
+        <f>L26/100*C1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3188,19 +3453,19 @@
       <c r="H28" s="9">
         <v>403.57</v>
       </c>
-      <c r="I28" s="11" t="e">
+      <c r="I28" s="11">
         <f>J28/I4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J28" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="K28" s="11" t="e">
+        <v>1</v>
+      </c>
+      <c r="J28" s="74">
+        <v>500</v>
+      </c>
+      <c r="K28" s="11">
         <f>L28/K4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" s="74" t="s">
-        <v>75</v>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="L28" s="74">
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3231,12 +3496,12 @@
         <v>3324.7747747747744</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" ref="K29:L29" si="16">K27</f>
-        <v>6.6495495495495485</v>
+        <f>K26</f>
+        <v>5.3336000000000006</v>
       </c>
       <c r="L29" s="12">
-        <f t="shared" si="16"/>
-        <v>6649.5495495495488</v>
+        <f>L26</f>
+        <v>5333.6</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3267,8 +3532,7 @@
         <v>550</v>
       </c>
       <c r="K30" s="10">
-        <f>'Kabel V2'!I18</f>
-        <v>1.07</v>
+        <v>0.72</v>
       </c>
       <c r="L30" s="9">
         <f>'Kabel V2'!J18</f>
@@ -3295,7 +3559,7 @@
         <v>4.8</v>
       </c>
       <c r="I31" s="76">
-        <f t="shared" ref="I31" si="17">4/(5000/30)</f>
+        <f t="shared" ref="I31" si="16">4/(5000/30)</f>
         <v>2.4E-2</v>
       </c>
       <c r="J31" s="77">
@@ -3303,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="K31" s="76">
-        <f t="shared" ref="K31" si="18">4/(5000/30)</f>
+        <f t="shared" ref="K31" si="17">4/(5000/30)</f>
         <v>2.4E-2</v>
       </c>
       <c r="L31" s="77">
@@ -3344,19 +3608,19 @@
       </c>
       <c r="I33" s="21">
         <f>J33/I4</f>
-        <v>7.749549549549549</v>
+        <v>8.749549549549549</v>
       </c>
       <c r="J33" s="18">
         <f>SUM(J28:J30)</f>
-        <v>3874.7747747747744</v>
+        <v>4374.7747747747744</v>
       </c>
       <c r="K33" s="21">
         <f>L33/K4</f>
-        <v>7.7195495495495488</v>
+        <v>6.8166000000000002</v>
       </c>
       <c r="L33" s="18">
         <f>SUM(L28:L30)</f>
-        <v>7719.5495495495488</v>
+        <v>6816.6</v>
       </c>
     </row>
   </sheetData>
@@ -3382,6 +3646,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3394,7 +3659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -3509,7 +3774,7 @@
       <c r="A6" s="78"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="41">
         <v>1</v>
@@ -3895,7 +4160,6 @@
     <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3906,13 +4170,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13" style="128" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="128" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="128" customWidth="1"/>
+    <col min="4" max="4" width="17" style="128" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="128" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="128" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="128" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="128">
+        <v>2059608</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="128">
+        <v>1759016</v>
+      </c>
+      <c r="C3" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="128">
+        <v>1190132</v>
+      </c>
+      <c r="C4" s="129">
+        <v>1206</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="128">
+        <v>2059627</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="128">
+        <v>1759022</v>
+      </c>
+      <c r="C6" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="128">
+        <v>1432447</v>
+      </c>
+      <c r="C7" s="129">
+        <v>1206</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="128">
+        <v>1759399</v>
+      </c>
+      <c r="C8" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="128" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="128">
+        <v>2320811</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="128" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="128">
+        <v>2059568</v>
+      </c>
+      <c r="C10" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="128" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="128">
+        <v>2059570</v>
+      </c>
+      <c r="C11" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="128">
+        <v>2060684</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="128" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="128">
+        <v>2099223</v>
+      </c>
+      <c r="C13" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="128">
+        <v>1202826</v>
+      </c>
+      <c r="C14" s="128" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="128">
+        <v>2099221</v>
+      </c>
+      <c r="C15" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="128">
+        <v>1679118</v>
+      </c>
+      <c r="D16" s="128" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="128">
+        <v>1679121</v>
+      </c>
+      <c r="D17" s="128" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="128" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="128">
+        <v>1103107</v>
+      </c>
+      <c r="C18" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="128" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="128">
+        <v>2432094</v>
+      </c>
+      <c r="C19" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="128" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="128">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/Kalkulation.xlsx
+++ b/Documentation/Kalkulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37520" windowHeight="23560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Platinen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>1.8K</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Eigen</t>
   </si>
   <si>
-    <t>PCB Pool Platinen</t>
-  </si>
-  <si>
     <t>Summe</t>
   </si>
   <si>
@@ -270,6 +267,15 @@
   </si>
   <si>
     <t>Farnell</t>
+  </si>
+  <si>
+    <t>Bestücken</t>
+  </si>
+  <si>
+    <t>Platinen</t>
+  </si>
+  <si>
+    <t>Bestücken eimalig</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,14 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +510,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDA9694"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -830,815 +849,880 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="526">
+  <cellStyleXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="12" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="11" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="10" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="12" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="11" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="10" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="12" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="526" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="526" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="27" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="26" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="526">
+  <cellStyles count="587">
     <cellStyle name="20 % - Akzent1" xfId="3" builtinId="30"/>
     <cellStyle name="20 % - Akzent3" xfId="7" builtinId="38"/>
+    <cellStyle name="40 % - Akzent1" xfId="526" builtinId="31"/>
     <cellStyle name="60 % - Akzent1" xfId="4" builtinId="32"/>
     <cellStyle name="60 % - Akzent2" xfId="5" builtinId="36"/>
     <cellStyle name="60 % - Akzent3" xfId="8" builtinId="40"/>
@@ -1918,6 +2002,36 @@
     <cellStyle name="Besuchter Link" xfId="521" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="523" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
@@ -2161,6 +2275,36 @@
     <cellStyle name="Link" xfId="520" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="522" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="524" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -2491,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2508,70 +2652,70 @@
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="22"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="84">
         <v>200</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="79">
+      <c r="H4" s="85"/>
+      <c r="I4" s="84">
         <v>500</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="79">
+      <c r="J4" s="85"/>
+      <c r="K4" s="84">
         <v>1000</v>
       </c>
-      <c r="L4" s="80"/>
+      <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="23"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="90"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="94"/>
       <c r="G5" s="24" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2736,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="101" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="2">
@@ -2611,29 +2755,29 @@
         <v>2</v>
       </c>
       <c r="G6" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ref="H6:H15" si="0">$F6*G$4*G6</f>
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="I6" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" ref="J6:J15" si="1">$F6*I$4*I6</f>
-        <v>5</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="K6" s="7">
-        <v>4.4000000000000003E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ref="L6:L15" si="2">$F6*K$4*K6</f>
-        <v>8.8000000000000007</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="97"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="1">
         <v>1759016</v>
       </c>
@@ -2650,11 +2794,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I7" s="8">
         <v>5.0000000000000001E-3</v>
@@ -2672,7 +2816,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="97"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="2">
         <v>1190132</v>
       </c>
@@ -2696,11 +2840,11 @@
         <v>36.6</v>
       </c>
       <c r="I8" s="7">
-        <v>0.183</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="1"/>
-        <v>91.5</v>
+        <v>86.5</v>
       </c>
       <c r="K8" s="7">
         <v>0.16700000000000001</v>
@@ -2711,7 +2855,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="97"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="1">
         <v>2059627</v>
       </c>
@@ -2728,29 +2872,29 @@
         <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="I9" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.45</v>
       </c>
       <c r="K9" s="8">
-        <v>0.16700000000000001</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="97"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="2">
         <v>1759022</v>
       </c>
@@ -2774,11 +2918,11 @@
         <v>1.2</v>
       </c>
       <c r="I10" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K10" s="7">
         <v>4.0000000000000001E-3</v>
@@ -2789,7 +2933,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="97"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="1">
         <v>1432447</v>
       </c>
@@ -2806,29 +2950,29 @@
         <v>1</v>
       </c>
       <c r="G11" s="8">
-        <v>0.21299999999999999</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>42.6</v>
+        <v>95.8</v>
       </c>
       <c r="I11" s="8">
-        <v>0.21299999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>106.5</v>
+        <v>141.5</v>
       </c>
       <c r="K11" s="8">
-        <v>0.17699999999999999</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="97"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>1759399</v>
       </c>
@@ -2852,11 +2996,11 @@
         <v>1.6</v>
       </c>
       <c r="I12" s="7">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K12" s="7">
         <v>6.0000000000000001E-3</v>
@@ -2867,7 +3011,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="97"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="1">
         <v>2320811</v>
       </c>
@@ -2906,7 +3050,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="97"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="2">
         <v>2059568</v>
       </c>
@@ -2923,29 +3067,29 @@
         <v>1</v>
       </c>
       <c r="G14" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I14" s="7">
-        <v>6.0000000000000001E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.1000000000000005</v>
       </c>
       <c r="K14" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="97"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="1">
         <v>2059570</v>
       </c>
@@ -2962,63 +3106,63 @@
         <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="0"/>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="I15" s="8">
-        <v>6.0000000000000001E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.4499999999999997</v>
       </c>
       <c r="K15" s="8">
-        <v>4.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="19">
         <f>H16/G4</f>
-        <v>0.499</v>
+        <v>0.78850000000000009</v>
       </c>
       <c r="H16" s="15">
         <f>SUM(H6:H15)</f>
-        <v>99.8</v>
+        <v>157.70000000000002</v>
       </c>
       <c r="I16" s="19">
         <f>J16/I4</f>
-        <v>0.49299999999999999</v>
+        <v>0.55880000000000007</v>
       </c>
       <c r="J16" s="15">
         <f>SUM(J6:J15)</f>
-        <v>246.5</v>
+        <v>279.40000000000003</v>
       </c>
       <c r="K16" s="19">
         <f>L16/K4</f>
-        <v>0.58279999999999998</v>
+        <v>0.51230000000000009</v>
       </c>
       <c r="L16" s="15">
         <f>SUM(L6:L15)</f>
-        <v>582.79999999999995</v>
+        <v>512.30000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="102" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="3">
@@ -3037,11 +3181,11 @@
         <v>2</v>
       </c>
       <c r="G17" s="11">
-        <v>1.1200000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" ref="H17:H24" si="3">$F17*G$4*G17</f>
-        <v>448.00000000000006</v>
+        <v>451.99999999999994</v>
       </c>
       <c r="I17" s="11">
         <v>1.04</v>
@@ -3051,20 +3195,20 @@
         <v>1040</v>
       </c>
       <c r="K17" s="11">
-        <v>0.70899999999999996</v>
+        <v>1.03</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" ref="L17:L24" si="5">$F17*K$4*K17</f>
-        <v>1418</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="98"/>
+      <c r="A18" s="102"/>
       <c r="B18" s="4">
         <v>2099223</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
@@ -3083,11 +3227,11 @@
         <v>10.4</v>
       </c>
       <c r="I18" s="14">
-        <v>4.0399999999999998E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="J18" s="12">
         <f t="shared" si="4"/>
-        <v>20.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K18" s="14">
         <v>3.6200000000000003E-2</v>
@@ -3098,7 +3242,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="98"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="3">
         <v>1202826</v>
       </c>
@@ -3122,11 +3266,11 @@
         <v>25.2</v>
       </c>
       <c r="I19" s="11">
-        <v>0.126</v>
+        <v>0.113</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>56.5</v>
       </c>
       <c r="K19" s="11">
         <v>0.111</v>
@@ -3137,7 +3281,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="98"/>
+      <c r="A20" s="102"/>
       <c r="B20" s="4">
         <v>2099221</v>
       </c>
@@ -3161,11 +3305,11 @@
         <v>12.9</v>
       </c>
       <c r="I20" s="14">
-        <v>4.8599999999999997E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="J20" s="12">
         <f t="shared" si="4"/>
-        <v>24.299999999999997</v>
+        <v>21.8</v>
       </c>
       <c r="K20" s="14">
         <v>4.36E-2</v>
@@ -3176,7 +3320,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="98"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="3">
         <v>1679118</v>
       </c>
@@ -3193,11 +3337,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="11">
-        <v>0.29899999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="3"/>
-        <v>119.6</v>
+        <v>140</v>
       </c>
       <c r="I21" s="11">
         <v>0.255</v>
@@ -3215,7 +3359,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="98"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="4">
         <v>1679121</v>
       </c>
@@ -3239,11 +3383,11 @@
         <v>88.6</v>
       </c>
       <c r="I22" s="14">
-        <v>0.433</v>
+        <v>0.126</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="4"/>
-        <v>216.5</v>
+        <v>63</v>
       </c>
       <c r="K22" s="14">
         <v>0.126</v>
@@ -3254,7 +3398,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="98"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="3">
         <v>1103107</v>
       </c>
@@ -3278,11 +3422,11 @@
         <v>244</v>
       </c>
       <c r="I23" s="11">
-        <v>1.22</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="4"/>
-        <v>610</v>
+        <v>433</v>
       </c>
       <c r="K23" s="11">
         <v>0.86599999999999999</v>
@@ -3293,7 +3437,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="98"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="4">
         <v>2432094</v>
       </c>
@@ -3317,11 +3461,11 @@
         <v>486.00000000000006</v>
       </c>
       <c r="I24" s="14">
-        <v>2.4300000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="4"/>
-        <v>1215</v>
+        <v>1020</v>
       </c>
       <c r="K24" s="14">
         <v>1.64</v>
@@ -3332,114 +3476,114 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="20">
         <f>H25/G4</f>
-        <v>7.1735000000000007</v>
+        <v>7.2954999999999997</v>
       </c>
       <c r="H25" s="16">
         <f>SUM(H17:H24)</f>
-        <v>1434.7</v>
+        <v>1459.1</v>
       </c>
       <c r="I25" s="20">
         <f>J25/I4</f>
-        <v>6.8879999999999999</v>
+        <v>5.8147999999999991</v>
       </c>
       <c r="J25" s="16">
         <f>SUM(J17:J24)</f>
-        <v>3444</v>
+        <v>2907.3999999999996</v>
       </c>
       <c r="K25" s="20">
         <f>L25/K4</f>
-        <v>4.7507999999999999</v>
+        <v>5.3927999999999994</v>
       </c>
       <c r="L25" s="16">
         <f>SUM(L17:L24)</f>
-        <v>4750.8</v>
+        <v>5392.7999999999993</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
+      <c r="A26" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
       <c r="G26" s="70">
         <f t="shared" ref="G26" si="6">H26/G$4</f>
-        <v>7.6725000000000003</v>
+        <v>8.0839999999999996</v>
       </c>
       <c r="H26" s="71">
-        <f t="shared" ref="H26" si="7">H25+H16</f>
-        <v>1534.5</v>
+        <f>H25+H16</f>
+        <v>1616.8</v>
       </c>
       <c r="I26" s="70">
-        <f t="shared" ref="I26" si="8">J26/I$4</f>
-        <v>7.3810000000000002</v>
+        <f t="shared" ref="I26" si="7">J26/I$4</f>
+        <v>6.3735999999999997</v>
       </c>
       <c r="J26" s="71">
-        <f t="shared" ref="J26" si="9">J25+J16</f>
-        <v>3690.5</v>
+        <f>J25+J16</f>
+        <v>3186.7999999999997</v>
       </c>
       <c r="K26" s="70">
-        <f t="shared" ref="K26:K27" si="10">L26/K$4</f>
-        <v>5.3336000000000006</v>
+        <f t="shared" ref="K26:K27" si="8">L26/K$4</f>
+        <v>5.9050999999999991</v>
       </c>
       <c r="L26" s="71">
-        <f t="shared" ref="L26" si="11">L25+L16</f>
-        <v>5333.6</v>
+        <f>L25+L16</f>
+        <v>5905.0999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
+      <c r="A27" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="72">
-        <f t="shared" ref="G27" si="12">H27/G$4</f>
-        <v>6.9121621621621614</v>
+        <f t="shared" ref="G27" si="9">H27/G$4</f>
+        <v>8.0839999999999996</v>
       </c>
       <c r="H27" s="73">
-        <f t="shared" ref="H27" si="13">H26/1.11</f>
-        <v>1382.4324324324323</v>
+        <f>H26-(H26/100*A1)</f>
+        <v>1616.8</v>
       </c>
       <c r="I27" s="72">
-        <f t="shared" ref="I27" si="14">J27/I$4</f>
-        <v>6.6495495495495485</v>
+        <f t="shared" ref="I27" si="10">J27/I$4</f>
+        <v>6.3735999999999997</v>
       </c>
       <c r="J27" s="73">
-        <f t="shared" ref="J27" si="15">J26/1.11</f>
-        <v>3324.7747747747744</v>
+        <f>J26-(J26/100*C1)</f>
+        <v>3186.7999999999997</v>
       </c>
       <c r="K27" s="72">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>5.9050999999999991</v>
       </c>
       <c r="L27" s="73">
-        <f>L26/100*C1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="86" t="s">
+        <f>L26-(L26/100*E1)</f>
+        <v>5905.0999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="A28" s="107" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="17" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -3469,10 +3613,10 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="86"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3480,35 +3624,35 @@
         <v>1</v>
       </c>
       <c r="G29" s="14">
-        <f>G27</f>
-        <v>6.9121621621621614</v>
+        <f t="shared" ref="G29:L29" si="11">G27</f>
+        <v>8.0839999999999996</v>
       </c>
       <c r="H29" s="12">
-        <f>H27</f>
-        <v>1382.4324324324323</v>
+        <f t="shared" si="11"/>
+        <v>1616.8</v>
       </c>
       <c r="I29" s="14">
-        <f>I27</f>
-        <v>6.6495495495495485</v>
+        <f t="shared" si="11"/>
+        <v>6.3735999999999997</v>
       </c>
       <c r="J29" s="12">
-        <f>J27</f>
-        <v>3324.7747747747744</v>
+        <f t="shared" si="11"/>
+        <v>3186.7999999999997</v>
       </c>
       <c r="K29" s="13">
-        <f>K26</f>
-        <v>5.3336000000000006</v>
+        <f t="shared" si="11"/>
+        <v>5.9050999999999991</v>
       </c>
       <c r="L29" s="12">
-        <f>L26</f>
-        <v>5333.6</v>
+        <f t="shared" si="11"/>
+        <v>5905.0999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="86"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -3516,16 +3660,14 @@
         <v>1</v>
       </c>
       <c r="G30" s="10">
-        <f>'Kabel V2'!E18</f>
-        <v>1.6500000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="H30" s="9">
         <f>'Kabel V2'!F18</f>
         <v>330</v>
       </c>
       <c r="I30" s="10">
-        <f>'Kabel V2'!G18</f>
-        <v>1.1000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="J30" s="9">
         <f>'Kabel V2'!H18</f>
@@ -3540,93 +3682,144 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="75"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="75">
         <f>4/(5000/30)</f>
         <v>2.4E-2</v>
       </c>
-      <c r="H31" s="77">
+      <c r="H31" s="76">
         <f>$F31*G$4*G31</f>
         <v>4.8</v>
       </c>
-      <c r="I31" s="76">
-        <f t="shared" ref="I31" si="16">4/(5000/30)</f>
+      <c r="I31" s="75">
+        <f t="shared" ref="I31" si="12">4/(5000/30)</f>
         <v>2.4E-2</v>
       </c>
-      <c r="J31" s="77">
+      <c r="J31" s="76">
         <f>$F31*I$4*I31</f>
         <v>12</v>
       </c>
-      <c r="K31" s="76">
-        <f t="shared" ref="K31" si="17">4/(5000/30)</f>
+      <c r="K31" s="75">
+        <f t="shared" ref="K31" si="13">4/(5000/30)</f>
         <v>2.4E-2</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="76">
         <f>$F31*K$4*K31</f>
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="75"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" ht="18">
-      <c r="A33" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="21">
-        <f>H33/G4</f>
-        <v>10.580012162162161</v>
-      </c>
-      <c r="H33" s="18">
-        <f>SUM(H28:H30)</f>
-        <v>2116.0024324324322</v>
-      </c>
-      <c r="I33" s="21">
-        <f>J33/I4</f>
-        <v>8.749549549549549</v>
-      </c>
-      <c r="J33" s="18">
-        <f>SUM(J28:J30)</f>
-        <v>4374.7747747747744</v>
-      </c>
-      <c r="K33" s="21">
-        <f>L33/K4</f>
-        <v>6.8166000000000002</v>
-      </c>
-      <c r="L33" s="18">
-        <f>SUM(L28:L30)</f>
-        <v>6816.6</v>
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
+      <c r="G32" s="82">
+        <f>H32/G4</f>
+        <v>1.85</v>
+      </c>
+      <c r="H32" s="83">
+        <v>370</v>
+      </c>
+      <c r="I32" s="82">
+        <f>J32/I4</f>
+        <v>0.74</v>
+      </c>
+      <c r="J32" s="83">
+        <v>370</v>
+      </c>
+      <c r="K32" s="82">
+        <f>L32/K4</f>
+        <v>0.37</v>
+      </c>
+      <c r="L32" s="83">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="107"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" ref="H33" si="14">$F33*G$4*G33</f>
+        <v>500</v>
+      </c>
+      <c r="I33" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" ref="J33" si="15">$F33*I$4*I33</f>
+        <v>1150</v>
+      </c>
+      <c r="K33" s="14">
+        <v>2.15</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" ref="L33" si="16">$F33*K$4*K33</f>
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18">
+      <c r="A34" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="21">
+        <f>H34/G4</f>
+        <v>16.12585</v>
+      </c>
+      <c r="H34" s="18">
+        <f>SUM(H28:H33)</f>
+        <v>3225.17</v>
+      </c>
+      <c r="I34" s="21">
+        <f>J34/I4</f>
+        <v>11.537599999999999</v>
+      </c>
+      <c r="J34" s="18">
+        <f>SUM(J28:J33)</f>
+        <v>5768.7999999999993</v>
+      </c>
+      <c r="K34" s="21">
+        <f>L34/K4</f>
+        <v>9.9320999999999984</v>
+      </c>
+      <c r="L34" s="18">
+        <f>SUM(L28:L33)</f>
+        <v>9932.0999999999985</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
@@ -3638,13 +3831,14 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3674,50 +3868,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119" t="s">
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="32"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="123" t="s">
+      <c r="D3" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="130">
         <v>200</v>
       </c>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127">
+      <c r="F3" s="131"/>
+      <c r="G3" s="132">
         <v>500</v>
       </c>
-      <c r="H3" s="126"/>
-      <c r="I3" s="127">
+      <c r="H3" s="131"/>
+      <c r="I3" s="132">
         <v>1000</v>
       </c>
-      <c r="J3" s="126"/>
+      <c r="J3" s="131"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="124"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="34" t="s">
         <v>52</v>
       </c>
@@ -3743,7 +3937,7 @@
         <v>48010</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="37">
         <v>1</v>
@@ -3771,10 +3965,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="78"/>
+      <c r="A6" s="77"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="41">
         <v>1</v>
@@ -3802,12 +3996,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1">
-      <c r="A7" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
+      <c r="A7" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="114"/>
       <c r="E7" s="44">
         <f>SUM(F5:F6)</f>
         <v>1.55</v>
@@ -3834,10 +4028,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="110"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="48">
         <v>1</v>
@@ -3865,10 +4059,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="110"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="52">
         <v>1</v>
@@ -3892,12 +4086,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1">
-      <c r="A10" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
+      <c r="A10" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="117"/>
       <c r="E10" s="55">
         <f>SUM(F8:F9)+E7</f>
         <v>4.88</v>
@@ -3924,12 +4118,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1">
-      <c r="A11" s="113" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
+      <c r="A11" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="55">
         <f>E10*3*1.25*1.19</f>
         <v>21.777000000000001</v>
@@ -3947,12 +4141,12 @@
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="115"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="62">
         <v>1593509</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="64">
         <v>1</v>
@@ -3980,7 +4174,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="115"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
@@ -4001,12 +4195,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1">
-      <c r="A14" s="103" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="A14" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="67">
         <f>SUM(F12:F13)+E7</f>
         <v>1.6880000000000002</v>
@@ -4033,12 +4227,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1">
-      <c r="A15" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
+      <c r="A15" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="67">
         <f>E14*3*1.25*1.19</f>
         <v>7.5327000000000002</v>
@@ -4056,10 +4250,10 @@
       <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="107"/>
+      <c r="A16" s="112"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="37">
         <v>1</v>
@@ -4087,7 +4281,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="107"/>
+      <c r="A17" s="112"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
@@ -4108,12 +4302,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="46" customFormat="1">
-      <c r="A18" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
+      <c r="A18" s="113" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="44">
         <f>SUM(F16:F17)+E7</f>
         <v>1.6500000000000001</v>
@@ -4172,336 +4366,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="128" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="128" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="128" customWidth="1"/>
-    <col min="4" max="4" width="17" style="128" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="128" customWidth="1"/>
+    <col min="1" max="1" width="13" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="78" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="78" customWidth="1"/>
+    <col min="4" max="4" width="17" style="78" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="128" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="128" t="s">
+      <c r="B1" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="78">
+        <v>2059608</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="128" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="128" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="128" t="s">
+      <c r="D2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="78">
+        <v>1759016</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="78">
+        <v>1190132</v>
+      </c>
+      <c r="C4" s="79">
+        <v>1206</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="128">
-        <v>2059608</v>
-      </c>
-      <c r="C2" s="129" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="78">
+        <v>2059627</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="78">
+        <v>1759022</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="78">
+        <v>1432447</v>
+      </c>
+      <c r="C7" s="79">
+        <v>1206</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="78">
+        <v>1759399</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="78">
+        <v>2320811</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="78">
+        <v>2059568</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="78">
+        <v>2059570</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="78">
+        <v>2060684</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="78">
+        <v>2099223</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="78">
+        <v>1202826</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="78">
+        <v>2099221</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="78">
+        <v>1679118</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="78">
+        <v>1679121</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="78">
+        <v>1103107</v>
+      </c>
+      <c r="C18" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="128" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="128" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="128">
-        <v>1759016</v>
-      </c>
-      <c r="C3" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="128">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="128">
-        <v>1190132</v>
-      </c>
-      <c r="C4" s="129">
-        <v>1206</v>
-      </c>
-      <c r="D4" s="128" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="128">
+      <c r="D18" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="128" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="128">
-        <v>2059627</v>
-      </c>
-      <c r="C5" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="128" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="128">
-        <v>1759022</v>
-      </c>
-      <c r="C6" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="128">
-        <v>1432447</v>
-      </c>
-      <c r="C7" s="129">
-        <v>1206</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="128" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="128">
-        <v>1759399</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="128" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="128">
-        <v>2320811</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="128" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="128">
-        <v>2059568</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="128">
-        <v>2059570</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="128">
-        <v>2060684</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="128">
-        <v>2099223</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="128">
-        <v>1202826</v>
-      </c>
-      <c r="C14" s="128" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="128">
-        <v>2099221</v>
-      </c>
-      <c r="C15" s="129" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="128">
-        <v>1679118</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="128">
-        <v>1679121</v>
-      </c>
-      <c r="D17" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="128">
-        <v>1103107</v>
-      </c>
-      <c r="C18" s="128" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="78">
+        <v>2432094</v>
+      </c>
+      <c r="C19" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="128" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="128" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="128">
-        <v>2432094</v>
-      </c>
-      <c r="C19" s="128" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="78">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Documentation/Kalkulation.xlsx
+++ b/Documentation/Kalkulation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28040" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29480" windowHeight="17880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Platinen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="94">
   <si>
     <t>1.8K</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>Selbst</t>
+  </si>
+  <si>
+    <t>Verpackung</t>
   </si>
 </sst>
 </file>
@@ -310,14 +313,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -421,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,12 +532,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDA9694"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -884,806 +874,811 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="683">
+  <cellStyleXfs count="688">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="9" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="13" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="12" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="14" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="13" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="12" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="13" fillId="19" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="13" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="12" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="12" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="11" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="11" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1692,15 +1687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="525" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="525" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="3" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="7" borderId="3" xfId="7" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1717,162 +1708,166 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="662" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="661" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="662" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="661" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="662" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="661" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="683">
+  <cellStyles count="688">
     <cellStyle name="20 % - Akzent1" xfId="3" builtinId="30"/>
     <cellStyle name="20 % - Akzent3" xfId="6" builtinId="38"/>
-    <cellStyle name="40 % - Akzent1" xfId="525" builtinId="31"/>
     <cellStyle name="60 % - Akzent1" xfId="4" builtinId="32"/>
     <cellStyle name="60 % - Akzent3" xfId="7" builtinId="40"/>
     <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
@@ -2151,85 +2146,88 @@
     <cellStyle name="Besuchter Link" xfId="520" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="522" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="527" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="529" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="531" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="533" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="535" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="537" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="539" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="541" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="543" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="545" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="547" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="549" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="551" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="553" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="555" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="557" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="559" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="561" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="563" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="565" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="567" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="569" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="571" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="573" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="575" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="577" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="579" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="581" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="583" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="585" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="587" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="589" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="591" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="593" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="595" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="597" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="599" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="601" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="603" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="605" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="607" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="609" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="611" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="613" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="615" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="617" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="619" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="621" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="623" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="625" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="627" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="629" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="631" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="633" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="635" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="637" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="639" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="641" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="643" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="645" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="647" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="649" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="651" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="653" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="655" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="657" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="659" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="661" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="664" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="666" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="668" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="670" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="672" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="674" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="676" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="678" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="680" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="682" builtinId="9" hidden="1"/>
-    <cellStyle name="Dezimal" xfId="662" builtinId="3"/>
+    <cellStyle name="Besuchter Link" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="Dezimal" xfId="661" builtinId="3"/>
     <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
@@ -2473,84 +2471,87 @@
     <cellStyle name="Link" xfId="519" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="521" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="526" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="528" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="530" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="532" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="534" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="536" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="538" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="540" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="542" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="544" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="546" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="548" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="550" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="552" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="554" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="556" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="558" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="560" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="562" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="564" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="566" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="568" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="570" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="572" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="574" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="576" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="578" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="580" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="582" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="584" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="586" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="588" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="590" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="592" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="594" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="596" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="598" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="600" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="602" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="604" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="606" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="608" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="610" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="612" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="614" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="616" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="618" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="620" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="622" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="624" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="626" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="628" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="630" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="632" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="634" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="636" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="638" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="640" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="642" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="644" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="646" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="648" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="650" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="652" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="654" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="656" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="658" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="660" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="663" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="665" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="667" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="669" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="671" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="673" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="675" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="677" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="679" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="686" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
@@ -2881,10 +2882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2899,9 +2900,10 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>55</v>
       </c>
@@ -2909,59 +2911,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18">
-      <c r="A3" s="112" t="s">
+    <row r="3" spans="1:14" ht="18">
+      <c r="A3" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="22"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="96">
         <v>200</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="108">
+      <c r="H4" s="97"/>
+      <c r="I4" s="96">
         <v>500</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="108">
+      <c r="J4" s="97"/>
+      <c r="K4" s="96">
         <v>1000</v>
       </c>
-      <c r="L4" s="109"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="97"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="23"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="97"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="24" t="s">
         <v>51</v>
       </c>
@@ -2980,9 +2984,10 @@
       <c r="L5" s="25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
+      <c r="A6" s="113" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="2">
@@ -3021,9 +3026,10 @@
         <f t="shared" ref="L6:L15" si="2">$F6*K$4*K6</f>
         <v>9.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="107"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="114"/>
       <c r="B7" s="1">
         <v>1759016</v>
       </c>
@@ -3060,9 +3066,10 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="107"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="114"/>
       <c r="B8" s="2">
         <v>1190132</v>
       </c>
@@ -3099,9 +3106,10 @@
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="107"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="114"/>
       <c r="B9" s="1">
         <v>2059627</v>
       </c>
@@ -3138,9 +3146,10 @@
         <f t="shared" si="2"/>
         <v>7.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="107"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="114"/>
       <c r="B10" s="2">
         <v>1759022</v>
       </c>
@@ -3177,9 +3186,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="107"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="114"/>
       <c r="B11" s="1">
         <v>1432447</v>
       </c>
@@ -3216,9 +3226,10 @@
         <f t="shared" si="2"/>
         <v>266</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="107"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="114"/>
       <c r="B12" s="2">
         <v>1759399</v>
       </c>
@@ -3255,9 +3266,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="107"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="114"/>
       <c r="B13" s="1">
         <v>2320811</v>
       </c>
@@ -3294,9 +3306,10 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="107"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="114"/>
       <c r="B14" s="2">
         <v>2059568</v>
       </c>
@@ -3333,9 +3346,10 @@
         <f t="shared" si="2"/>
         <v>7.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="107"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="114"/>
       <c r="B15" s="1">
         <v>2059570</v>
       </c>
@@ -3372,9 +3386,10 @@
         <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="107"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="114"/>
       <c r="B16" s="2">
         <v>2099221</v>
       </c>
@@ -3390,27 +3405,28 @@
       <c r="F16" s="26">
         <v>1</v>
       </c>
-      <c r="G16" s="81">
+      <c r="G16" s="79">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="80">
         <v>12.9</v>
       </c>
-      <c r="I16" s="81">
+      <c r="I16" s="79">
         <v>4.36E-2</v>
       </c>
-      <c r="J16" s="82">
+      <c r="J16" s="80">
         <v>21.8</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="79">
         <v>4.36E-2</v>
       </c>
-      <c r="L16" s="82">
+      <c r="L16" s="80">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="107"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="114"/>
       <c r="B17" s="1">
         <v>2099223</v>
       </c>
@@ -3444,16 +3460,17 @@
       <c r="L17" s="6">
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="103" t="s">
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="19">
         <f>H18/G4</f>
         <v>0.90500000000000014</v>
@@ -3478,9 +3495,10 @@
         <f>SUM(L6:L17)</f>
         <v>592.10000000000014</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="100" t="s">
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="107" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="3">
@@ -3519,9 +3537,10 @@
         <f t="shared" ref="L19:L24" si="5">$F19*K$4*K19</f>
         <v>2060</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="100"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="107"/>
       <c r="B20" s="4" t="s">
         <v>81</v>
       </c>
@@ -3537,30 +3556,31 @@
       <c r="F20" s="29">
         <v>1</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="78">
         <v>0.126</v>
       </c>
       <c r="H20" s="72">
         <f t="shared" si="3"/>
         <v>25.2</v>
       </c>
-      <c r="I20" s="80">
+      <c r="I20" s="78">
         <v>0.113</v>
       </c>
       <c r="J20" s="72">
         <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
-      <c r="K20" s="80">
+      <c r="K20" s="78">
         <v>0.111</v>
       </c>
       <c r="L20" s="72">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="100"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="107"/>
       <c r="B21" s="3">
         <v>1679118</v>
       </c>
@@ -3597,9 +3617,10 @@
         <f t="shared" si="5"/>
         <v>510</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="100"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="107"/>
       <c r="B22" s="4">
         <v>1679121</v>
       </c>
@@ -3636,9 +3657,10 @@
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="100"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="107"/>
       <c r="B23" s="3">
         <v>1103107</v>
       </c>
@@ -3675,9 +3697,10 @@
         <f t="shared" si="5"/>
         <v>866</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="100"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="107"/>
       <c r="B24" s="4">
         <v>2432094</v>
       </c>
@@ -3714,16 +3737,17 @@
         <f t="shared" si="5"/>
         <v>1640</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="98" t="s">
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106"/>
       <c r="G25" s="20">
         <f>H25/G4</f>
         <v>7.1789999999999994</v>
@@ -3748,9 +3772,10 @@
         <f>SUM(L19:L24)</f>
         <v>5313</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="105" t="s">
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="112" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="3"/>
@@ -3771,10 +3796,10 @@
       </c>
       <c r="I26" s="11">
         <f>J26/I4</f>
-        <v>1.55</v>
+        <v>1.1151092437000001</v>
       </c>
       <c r="J26" s="70">
-        <v>775</v>
+        <v>557.55462184999999</v>
       </c>
       <c r="K26" s="11">
         <f>L26/K4</f>
@@ -3783,9 +3808,10 @@
       <c r="L26" s="70">
         <v>413</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="105"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="112"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>62</v>
@@ -3819,9 +3845,10 @@
         <f t="shared" si="6"/>
         <v>5313</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="105"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="112"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -3839,11 +3866,11 @@
         <v>330</v>
       </c>
       <c r="I28" s="10">
-        <v>0.72</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J28" s="9">
-        <f>'Kabel V2'!H18</f>
-        <v>550</v>
+        <f>I28*I4</f>
+        <v>275</v>
       </c>
       <c r="K28" s="10">
         <v>0.72</v>
@@ -3852,9 +3879,10 @@
         <f>'Kabel V2'!J18</f>
         <v>1070</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="105"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="112"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
         <v>61</v>
@@ -3888,9 +3916,10 @@
         <f>$F29*K$4*K29</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="105"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="112"/>
       <c r="B30" s="3"/>
       <c r="C30" s="17" t="s">
         <v>78</v>
@@ -3900,89 +3929,121 @@
       <c r="F30" s="28">
         <v>1</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="105"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76" t="s">
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="76">
+        <f>J30/I4</f>
+        <v>0.7</v>
+      </c>
+      <c r="J30" s="77">
+        <v>350</v>
+      </c>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="112"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="77">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="29">
         <v>1</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="78">
         <v>2.95</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="72">
         <f t="shared" ref="H31" si="9">$F31*G$4*G31</f>
         <v>590</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="78">
         <v>2.7</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="72">
         <f t="shared" ref="J31" si="10">$F31*I$4*I31</f>
         <v>1350</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="78">
         <v>2.5499999999999998</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="72">
         <f t="shared" ref="L31" si="11">$F31*K$4*K31</f>
         <v>2550</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32" s="94" t="s">
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="93"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="28">
+        <v>1</v>
+      </c>
+      <c r="G32" s="140"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="140">
+        <f>J32/I4</f>
+        <v>0.87</v>
+      </c>
+      <c r="J32" s="77">
+        <v>435</v>
+      </c>
+      <c r="K32" s="140"/>
+      <c r="L32" s="77"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" ht="18">
+      <c r="A33" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="21">
-        <f>H32/G4</f>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="21">
+        <f>H33/G4</f>
         <v>12.802999999999999</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H33" s="18">
         <f>SUM(H26:H31)</f>
         <v>2560.6</v>
       </c>
-      <c r="I32" s="21">
-        <f>J32/I4</f>
-        <v>11.109</v>
-      </c>
-      <c r="J32" s="18">
-        <f>SUM(J26:J31)</f>
-        <v>5554.5</v>
-      </c>
-      <c r="K32" s="21">
-        <f>L32/K4</f>
+      <c r="I33" s="21">
+        <f>J33/I4</f>
+        <v>11.6941092437</v>
+      </c>
+      <c r="J33" s="18">
+        <f>SUM(J26:J32)</f>
+        <v>5847.0546218500003</v>
+      </c>
+      <c r="K33" s="21">
+        <f>L33/K4</f>
         <v>9.3699999999999992</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L33" s="18">
         <f>SUM(L26:L31)</f>
         <v>9370</v>
       </c>
-    </row>
-    <row r="33" ht="15" customHeight="1"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="N34"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A19:A24"/>
@@ -3993,9 +4054,12 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A6:A17"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4023,50 +4087,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="32"/>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="124">
+      <c r="E3" s="137">
         <v>200</v>
       </c>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126">
+      <c r="F3" s="138"/>
+      <c r="G3" s="139">
         <v>500</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126">
+      <c r="H3" s="138"/>
+      <c r="I3" s="139">
         <v>1000</v>
       </c>
-      <c r="J3" s="125"/>
+      <c r="J3" s="138"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="33"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="123"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="34" t="s">
         <v>51</v>
       </c>
@@ -4151,12 +4215,12 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="46" customFormat="1">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
       <c r="E7" s="44">
         <f>SUM(F5:F6)</f>
         <v>1.55</v>
@@ -4183,7 +4247,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="134"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
         <v>56</v>
@@ -4214,7 +4278,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="134"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51" t="s">
         <v>61</v>
@@ -4241,12 +4305,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="46" customFormat="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="136"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="55">
         <f>SUM(F8:F9)+E7</f>
         <v>4.88</v>
@@ -4273,12 +4337,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" s="46" customFormat="1">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="138"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="126"/>
       <c r="E11" s="55">
         <f>E10*3*1.25*1.19</f>
         <v>21.777000000000001</v>
@@ -4296,7 +4360,7 @@
       <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="139"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="62">
         <v>1593509</v>
       </c>
@@ -4329,7 +4393,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="139"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="57"/>
       <c r="C13" s="58"/>
       <c r="D13" s="59"/>
@@ -4350,12 +4414,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" s="46" customFormat="1">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="67">
         <f>SUM(F12:F13)+E7</f>
         <v>1.6880000000000002</v>
@@ -4382,12 +4446,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="46" customFormat="1">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="67">
         <f>E14*3*1.25*1.19</f>
         <v>7.5327000000000002</v>
@@ -4405,7 +4469,7 @@
       <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="131"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36" t="s">
         <v>59</v>
@@ -4436,7 +4500,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="131"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
       <c r="D17" s="41"/>
@@ -4457,12 +4521,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="46" customFormat="1">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="44">
         <f>SUM(F16:F17)+E7</f>
         <v>1.6500000000000001</v>
@@ -4490,6 +4554,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:A17"/>
@@ -4499,14 +4571,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4533,9 +4597,9 @@
     <col min="4" max="4" width="17" style="74" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="74" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="89" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="84" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="87" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4572,13 +4636,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="74"/>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="83" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4601,13 +4665,13 @@
       <c r="F3" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="89">
+      <c r="G3" s="87">
         <v>550</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="83">
         <v>3160.3</v>
       </c>
-      <c r="I3" s="85">
+      <c r="I3" s="83">
         <f>H3/G3</f>
         <v>5.7460000000000004</v>
       </c>
@@ -4631,14 +4695,14 @@
       <c r="F4" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="89">
+      <c r="G4" s="87">
         <v>750</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="83">
         <f>772.5+250</f>
         <v>1022.5</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="83">
         <f>H4/G4</f>
         <v>1.3633333333333333</v>
       </c>
@@ -4665,13 +4729,13 @@
       <c r="F5" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="89">
+      <c r="G5" s="87">
         <v>750</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="83">
         <v>499.28</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="83">
         <f>H5/G5</f>
         <v>0.66570666666666667</v>
       </c>
@@ -4699,17 +4763,17 @@
       <c r="E6" s="74">
         <v>1</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="90">
+      <c r="G6" s="88">
         <v>500</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="84">
         <f>1350+95+175+100</f>
         <v>1720</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="84">
         <f>H6/G6</f>
         <v>3.44</v>
       </c>
@@ -4733,15 +4797,15 @@
       <c r="E7" s="74">
         <v>1</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="88">
+      <c r="G7" s="89"/>
+      <c r="H7" s="86">
         <f>H3+H4+H6</f>
         <v>5902.8</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="86">
         <f>I6+I3+I4</f>
         <v>10.549333333333333</v>
       </c>
@@ -4765,11 +4829,11 @@
       <c r="F8" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="83">
         <f>H3+H5+H6</f>
         <v>5379.58</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="83">
         <f>I3+I5+I6</f>
         <v>9.8517066666666668</v>
       </c>
@@ -4793,11 +4857,11 @@
       <c r="F9" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="84">
+      <c r="H9" s="82">
         <f>H5+H3</f>
         <v>3659.58</v>
       </c>
-      <c r="I9" s="84">
+      <c r="I9" s="82">
         <f>I5+I3</f>
         <v>6.4117066666666673</v>
       </c>
@@ -4838,13 +4902,13 @@
       <c r="F11" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="87">
         <v>250</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <v>1775.5</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="82">
         <f>H11/G11</f>
         <v>7.1020000000000003</v>
       </c>
@@ -4865,14 +4929,14 @@
       <c r="F12" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="87">
         <v>300</v>
       </c>
-      <c r="H12" s="84">
+      <c r="H12" s="82">
         <f>549+250</f>
         <v>799</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="82">
         <f>H12/G12</f>
         <v>2.6633333333333336</v>
       </c>
@@ -4896,13 +4960,13 @@
       <c r="F13" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="87">
         <v>300</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="82">
         <v>390.41</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="82">
         <f>H13/G13</f>
         <v>1.3013666666666668</v>
       </c>
@@ -4923,17 +4987,17 @@
       <c r="E14" s="74">
         <v>1</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="88">
         <v>200</v>
       </c>
-      <c r="H14" s="92">
+      <c r="H14" s="90">
         <f>590+95+175+100</f>
         <v>960</v>
       </c>
-      <c r="I14" s="92">
+      <c r="I14" s="90">
         <f>H14/G14</f>
         <v>4.8</v>
       </c>
@@ -4954,14 +5018,14 @@
       <c r="E15" s="74">
         <v>1</v>
       </c>
-      <c r="F15" s="93" t="s">
+      <c r="F15" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="82">
         <f>H11+H12+H14</f>
         <v>3534.5</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="82">
         <f>I11+I12+I14</f>
         <v>14.565333333333335</v>
       </c>
@@ -4979,14 +5043,14 @@
       <c r="E16" s="74">
         <v>2</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="84">
+      <c r="H16" s="82">
         <f>H11+H13+H14</f>
         <v>3125.91</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="82">
         <f>I11+I13+I14</f>
         <v>13.203366666666668</v>
       </c>
